--- a/podaac/forge_tig_configuration/example_config.xlsx
+++ b/podaac/forge_tig_configuration/example_config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/simonl/Desktop/work/podaac/forge-tig-configuration/podaac/forge_tig_configuration/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{602BEECB-20D8-C048-B332-BE2772DC4ACD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC42B61A-57EA-2945-8A19-B932AAE12A11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18920" yWindow="1000" windowWidth="15960" windowHeight="18080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2340" yWindow="500" windowWidth="29280" windowHeight="18080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="required-settings" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>shortName</t>
   </si>
@@ -48,36 +48,6 @@
     <t>strategy</t>
   </si>
   <si>
-    <t>Arga</t>
-  </si>
-  <si>
-    <t>argb</t>
-  </si>
-  <si>
-    <t>argc</t>
-  </si>
-  <si>
-    <t>Argd</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>E</t>
-  </si>
-  <si>
-    <t>Id</t>
-  </si>
-  <si>
     <t>min</t>
   </si>
   <si>
@@ -100,6 +70,45 @@
   </si>
   <si>
     <t>palette_AQUARIUS</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>simplify</t>
+  </si>
+  <si>
+    <t>alpha_shape</t>
+  </si>
+  <si>
+    <t>alpha</t>
+  </si>
+  <si>
+    <t>0.2</t>
+  </si>
+  <si>
+    <t>thinning</t>
+  </si>
+  <si>
+    <t>cutoff_lat</t>
+  </si>
+  <si>
+    <t>0.3</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>False</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>lon</t>
+  </si>
+  <si>
+    <t>lat</t>
   </si>
 </sst>
 </file>
@@ -265,7 +274,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -276,12 +285,6 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -315,6 +318,9 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1447,22 +1453,22 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D2" sqref="D2"/>
+      <selection pane="bottomRight" activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="7" width="16.33203125" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="16.33203125" style="1"/>
+    <col min="1" max="6" width="16.33203125" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="16.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1478,26 +1484,22 @@
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>5</v>
-      </c>
     </row>
-    <row r="2" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="16"/>
-      <c r="E2" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>6</v>
+      <c r="B2" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -1520,12 +1522,14 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomRight" activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="6" width="16.33203125" style="1" customWidth="1"/>
+    <col min="1" max="2" width="16.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="33.5" style="1" customWidth="1"/>
+    <col min="4" max="6" width="16.33203125" style="1" customWidth="1"/>
     <col min="7" max="16384" width="16.33203125" style="1"/>
   </cols>
   <sheetData>
@@ -1534,33 +1538,31 @@
         <v>7</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -1579,77 +1581,79 @@
   </sheetPr>
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="19.83203125" style="6" customWidth="1"/>
-    <col min="2" max="2" width="4.5" style="6" customWidth="1"/>
-    <col min="3" max="3" width="4.83203125" style="6" customWidth="1"/>
-    <col min="4" max="4" width="22.33203125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="10.33203125" style="6" customWidth="1"/>
-    <col min="6" max="6" width="4.5" style="6" customWidth="1"/>
-    <col min="7" max="7" width="8.33203125" style="6" customWidth="1"/>
-    <col min="8" max="16384" width="8.33203125" style="6"/>
+    <col min="1" max="1" width="19.83203125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="4.5" style="4" customWidth="1"/>
+    <col min="3" max="3" width="4.83203125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="22.33203125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="10.33203125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="4.5" style="4" customWidth="1"/>
+    <col min="7" max="7" width="8.33203125" style="4" customWidth="1"/>
+    <col min="8" max="16384" width="8.33203125" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F1" s="7" t="s">
+      <c r="A1" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B2" s="9">
+      <c r="A2" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="7">
         <v>-0.2</v>
       </c>
-      <c r="C2" s="10">
+      <c r="C2" s="8">
         <v>0.2</v>
       </c>
-      <c r="D2" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="E2" s="10" t="b">
+      <c r="D2" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="8" t="b">
         <v>1</v>
       </c>
-      <c r="F2" s="10">
+      <c r="F2" s="8">
         <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3" s="13">
+      <c r="A3" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="11">
         <v>0</v>
       </c>
-      <c r="C3" s="14">
+      <c r="C3" s="12">
         <v>30</v>
       </c>
-      <c r="D3" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="E3" s="14" t="b">
+      <c r="D3" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="12" t="b">
         <v>0</v>
       </c>
-      <c r="F3" s="14">
+      <c r="F3" s="12">
         <v>15</v>
       </c>
     </row>
